--- a/DMS phase 1a/1a staging table/CP_POLICY_DTLS.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POLICY_DTLS.xlsx
@@ -463,10 +463,10 @@
     <t>Applicable only for GROUP, named is 2, unnamed is 1</t>
   </si>
   <si>
-    <t>POI Dates-- Pending confirmation about data type</t>
-  </si>
-  <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+    <t>Default to be display as '1'</t>
+  </si>
+  <si>
+    <t>Pending confirmation about data type, majesco will update it later</t>
   </si>
 </sst>
 </file>
@@ -619,14 +619,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,22 +1009,22 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>148</v>
+      <c r="E4" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>87</v>
@@ -1510,7 +1510,7 @@
         <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>89</v>
@@ -1757,25 +1757,25 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2400,15 +2400,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
